--- a/TestData/Register page/tc33.xlsx
+++ b/TestData/Register page/tc33.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohni\PycharmProjects\cchc_automation\TestData\Register page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E806678C-7351-41D5-B807-FFEA19A888AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B8BC58-4A62-4417-973B-2658FD2DD418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,19 +54,19 @@
     <t>pass2</t>
   </si>
   <si>
-    <t>Anu1@gmail.com</t>
-  </si>
-  <si>
-    <t>Anu</t>
-  </si>
-  <si>
-    <t>Anu@1234</t>
-  </si>
-  <si>
-    <t>Bhopal</t>
-  </si>
-  <si>
-    <t>Anu@12345</t>
+    <t>Sandeep</t>
+  </si>
+  <si>
+    <t>Sandeep1@gmail.com</t>
+  </si>
+  <si>
+    <t>Vadodara</t>
+  </si>
+  <si>
+    <t>Sandeep@123</t>
+  </si>
+  <si>
+    <t>Sandeep@1234</t>
   </si>
 </sst>
 </file>
@@ -411,7 +411,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,22 +453,22 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="C2">
-        <v>9039854796</v>
+        <v>7817004567</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3">
         <v>326598741485</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>13</v>
